--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127270.9503415021</v>
+        <v>-129731.8665599445</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>337.3698596490249</v>
       </c>
       <c r="C11" t="n">
-        <v>244.3091166111948</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.34709321012</v>
       </c>
       <c r="F11" t="n">
-        <v>361.5120637272557</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>365.8119104385895</v>
+        <v>365.8119104385896</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>251.8467681091838</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.011713299731298</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.61560571941722</v>
       </c>
       <c r="T11" t="n">
-        <v>159.6666032903773</v>
+        <v>159.6666032903774</v>
       </c>
       <c r="U11" t="n">
-        <v>205.6515232884136</v>
+        <v>205.6515232884137</v>
       </c>
       <c r="V11" t="n">
-        <v>282.3882764556792</v>
+        <v>282.3882764556793</v>
       </c>
       <c r="W11" t="n">
-        <v>303.8769867029573</v>
+        <v>303.8769867029574</v>
       </c>
       <c r="X11" t="n">
-        <v>324.3671186640133</v>
+        <v>324.3671186640134</v>
       </c>
       <c r="Y11" t="n">
         <v>340.8739566415979</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>148.1618058062191</v>
       </c>
       <c r="C12" t="n">
-        <v>127.34451697386</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>102.0810835501831</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>99.70523037892818</v>
+        <v>99.70523037892823</v>
       </c>
       <c r="G12" t="n">
         <v>135.1354603924896</v>
       </c>
       <c r="H12" t="n">
-        <v>90.91026437190155</v>
+        <v>45.54628235744592</v>
       </c>
       <c r="I12" t="n">
-        <v>23.49937276245683</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.586294988847868</v>
       </c>
       <c r="S12" t="n">
         <v>130.6694850336474</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>218.4105275436626</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>160.4090031890218</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>160.3187137628487</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4679981674816</v>
+        <v>134.4679981674817</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8828390841721</v>
+        <v>121.8828390841722</v>
       </c>
       <c r="D13" t="n">
         <v>103.2514910037567</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>101.0699806321135</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0570660084755</v>
+        <v>100.0570660084756</v>
       </c>
       <c r="G13" t="n">
-        <v>60.49513162654555</v>
+        <v>114.246885029575</v>
       </c>
       <c r="H13" t="n">
-        <v>100.404689679991</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.41704435515397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.69449625324284</v>
+        <v>48.6944962532429</v>
       </c>
       <c r="S13" t="n">
         <v>146.3919349810981</v>
@@ -1585,10 +1585,10 @@
         <v>240.8540749444095</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7736613093723</v>
+        <v>206.7736613093724</v>
       </c>
       <c r="W13" t="n">
-        <v>241.1590163221353</v>
+        <v>241.1590163221354</v>
       </c>
       <c r="X13" t="n">
         <v>180.3456733745815</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.3698596490249</v>
       </c>
       <c r="C14" t="n">
         <v>319.9089097565519</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5663880578061</v>
+        <v>299.3121400951671</v>
       </c>
       <c r="F14" t="n">
-        <v>361.5120637272557</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>365.8119104385895</v>
+        <v>365.8119104385896</v>
       </c>
       <c r="H14" t="n">
-        <v>251.8467681091838</v>
+        <v>251.8467681091839</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.011713299731305</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.61560571941718</v>
+        <v>69.61560571941723</v>
       </c>
       <c r="T14" t="n">
-        <v>159.6666032903773</v>
+        <v>159.6666032903774</v>
       </c>
       <c r="U14" t="n">
-        <v>205.6515232884136</v>
+        <v>205.6515232884137</v>
       </c>
       <c r="V14" t="n">
-        <v>282.3882764556792</v>
+        <v>282.3882764556793</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>303.8769867029574</v>
       </c>
       <c r="X14" t="n">
-        <v>231.9854099842345</v>
+        <v>324.3671186640134</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.8739566415979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>154.3371211446675</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>112.2810984409453</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892823</v>
       </c>
       <c r="G15" t="n">
-        <v>89.77147837803393</v>
+        <v>89.77147837803399</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54628235744585</v>
+        <v>45.54628235744592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.586294988847868</v>
       </c>
       <c r="S15" t="n">
         <v>130.6694850336474</v>
@@ -1743,16 +1743,16 @@
         <v>225.7961151881642</v>
       </c>
       <c r="V15" t="n">
-        <v>187.4366051349696</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.9099003061184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.3187137628487</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4679981674816</v>
+        <v>134.4679981674817</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8828390841721</v>
+        <v>121.8828390841722</v>
       </c>
       <c r="D16" t="n">
-        <v>103.2514910037567</v>
+        <v>41.95787128579775</v>
       </c>
       <c r="E16" t="n">
         <v>101.0699806321135</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0570660084755</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7758367208648</v>
+        <v>120.7758367208649</v>
       </c>
       <c r="H16" t="n">
-        <v>100.404689679991</v>
+        <v>100.4046896799911</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.41704435515404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.69449625324286</v>
+        <v>48.69449625324291</v>
       </c>
       <c r="S16" t="n">
-        <v>39.4582936098188</v>
+        <v>146.3919349810981</v>
       </c>
       <c r="T16" t="n">
         <v>174.6721029331442</v>
@@ -1822,10 +1822,10 @@
         <v>240.8540749444095</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7736613093723</v>
+        <v>206.7736613093724</v>
       </c>
       <c r="W16" t="n">
-        <v>241.1590163221353</v>
+        <v>241.1590163221354</v>
       </c>
       <c r="X16" t="n">
         <v>180.3456733745815</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290.3947230304323</v>
+        <v>290.3947230304324</v>
       </c>
       <c r="C17" t="n">
-        <v>272.9337731379592</v>
+        <v>272.9337731379594</v>
       </c>
       <c r="D17" t="n">
-        <v>262.3439229876346</v>
+        <v>262.3439229876348</v>
       </c>
       <c r="E17" t="n">
-        <v>289.5912514392135</v>
+        <v>289.5912514392136</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>314.5369271086633</v>
       </c>
       <c r="G17" t="n">
-        <v>318.8367738199969</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>204.8716314905911</v>
+        <v>204.8716314905914</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.64046910082452</v>
+        <v>22.6404691008247</v>
       </c>
       <c r="T17" t="n">
-        <v>112.6914666717847</v>
+        <v>112.6914666717849</v>
       </c>
       <c r="U17" t="n">
-        <v>158.676386669821</v>
+        <v>158.6763866698212</v>
       </c>
       <c r="V17" t="n">
-        <v>235.4131398370866</v>
+        <v>235.4131398370868</v>
       </c>
       <c r="W17" t="n">
-        <v>186.1430752153363</v>
+        <v>256.9018500843649</v>
       </c>
       <c r="X17" t="n">
-        <v>277.3919820454207</v>
+        <v>277.3919820454209</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.8988200230052</v>
+        <v>227.4398918653102</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>80.36938035526758</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,7 +1938,7 @@
         <v>135.1354603924896</v>
       </c>
       <c r="H18" t="n">
-        <v>90.91026437190155</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>23.49937276245683</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.586294988847868</v>
       </c>
       <c r="S18" t="n">
         <v>130.6694850336474</v>
       </c>
       <c r="T18" t="n">
-        <v>98.92559176224432</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U18" t="n">
-        <v>195.7339687791811</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V18" t="n">
-        <v>140.4614685163769</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>165.6956895444996</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.49286154888895</v>
+        <v>87.49286154888914</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90770246557949</v>
+        <v>74.90770246557967</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27635438516401</v>
+        <v>56.2763543851642</v>
       </c>
       <c r="E19" t="n">
-        <v>54.09484401352083</v>
+        <v>54.09484401352101</v>
       </c>
       <c r="F19" t="n">
-        <v>53.0819293898829</v>
+        <v>53.08192938988309</v>
       </c>
       <c r="G19" t="n">
-        <v>73.80070010227216</v>
+        <v>73.80070010227234</v>
       </c>
       <c r="H19" t="n">
-        <v>53.42955306139838</v>
+        <v>53.42955306139856</v>
       </c>
       <c r="I19" t="n">
-        <v>7.441907736561333</v>
+        <v>7.441907736561518</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719359634650203</v>
+        <v>1.719359634650388</v>
       </c>
       <c r="S19" t="n">
-        <v>99.41679836250543</v>
+        <v>99.41679836250563</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6969663145515</v>
+        <v>127.6969663145517</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8789383258168</v>
+        <v>193.878938325817</v>
       </c>
       <c r="V19" t="n">
-        <v>159.7985246907797</v>
+        <v>159.7985246907799</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1838797035427</v>
+        <v>194.1838797035429</v>
       </c>
       <c r="X19" t="n">
-        <v>133.3705367559888</v>
+        <v>133.370536755989</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190466</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>290.3947230304324</v>
       </c>
       <c r="C20" t="n">
-        <v>272.9337731379592</v>
+        <v>272.9337731379594</v>
       </c>
       <c r="D20" t="n">
-        <v>262.3439229876346</v>
+        <v>262.3439229876348</v>
       </c>
       <c r="E20" t="n">
-        <v>289.5912514392135</v>
+        <v>289.5912514392136</v>
       </c>
       <c r="F20" t="n">
-        <v>314.5369271086631</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>318.8367738199969</v>
+        <v>248.0779989509675</v>
       </c>
       <c r="H20" t="n">
-        <v>204.8716314905912</v>
+        <v>204.8716314905914</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.64046910082453</v>
+        <v>22.64046910082472</v>
       </c>
       <c r="T20" t="n">
-        <v>112.6914666717847</v>
+        <v>112.6914666717849</v>
       </c>
       <c r="U20" t="n">
-        <v>158.676386669821</v>
+        <v>158.6763866698212</v>
       </c>
       <c r="V20" t="n">
-        <v>235.4131398370866</v>
+        <v>235.4131398370868</v>
       </c>
       <c r="W20" t="n">
-        <v>256.9018500843647</v>
+        <v>256.9018500843649</v>
       </c>
       <c r="X20" t="n">
-        <v>277.3919820454207</v>
+        <v>277.3919820454209</v>
       </c>
       <c r="Y20" t="n">
-        <v>198.997841075746</v>
+        <v>293.8988200230054</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.194065016819</v>
+        <v>74.19406501681918</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>80.36938035526758</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2175,10 +2175,10 @@
         <v>135.1354603924896</v>
       </c>
       <c r="H21" t="n">
-        <v>90.91026437190156</v>
+        <v>75.76119573652619</v>
       </c>
       <c r="I21" t="n">
-        <v>23.49937276245686</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S21" t="n">
-        <v>38.33036640059903</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T21" t="n">
-        <v>161.2025639863087</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U21" t="n">
         <v>225.7961151881642</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.49286154888895</v>
+        <v>87.49286154888914</v>
       </c>
       <c r="C22" t="n">
-        <v>74.90770246557949</v>
+        <v>74.90770246557967</v>
       </c>
       <c r="D22" t="n">
-        <v>56.27635438516401</v>
+        <v>56.2763543851642</v>
       </c>
       <c r="E22" t="n">
-        <v>54.09484401352083</v>
+        <v>54.09484401352101</v>
       </c>
       <c r="F22" t="n">
-        <v>53.0819293898829</v>
+        <v>53.08192938988309</v>
       </c>
       <c r="G22" t="n">
-        <v>73.80070010227216</v>
+        <v>73.80070010227234</v>
       </c>
       <c r="H22" t="n">
-        <v>53.42955306139838</v>
+        <v>53.42955306139856</v>
       </c>
       <c r="I22" t="n">
-        <v>7.441907736561348</v>
+        <v>7.441907736561532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.719359634650218</v>
+        <v>1.719359634650402</v>
       </c>
       <c r="S22" t="n">
-        <v>99.41679836250545</v>
+        <v>99.41679836250565</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6969663145515</v>
+        <v>127.6969663145517</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8789383258168</v>
+        <v>193.878938325817</v>
       </c>
       <c r="V22" t="n">
-        <v>159.7985246907797</v>
+        <v>159.7985246907799</v>
       </c>
       <c r="W22" t="n">
-        <v>194.1838797035427</v>
+        <v>194.1838797035429</v>
       </c>
       <c r="X22" t="n">
-        <v>133.3705367559888</v>
+        <v>133.370536755989</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190466</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.3947230304323</v>
+        <v>290.3947230304324</v>
       </c>
       <c r="C23" t="n">
-        <v>272.9337731379592</v>
+        <v>272.9337731379594</v>
       </c>
       <c r="D23" t="n">
-        <v>262.3439229876346</v>
+        <v>262.3439229876348</v>
       </c>
       <c r="E23" t="n">
-        <v>289.5912514392135</v>
+        <v>289.5912514392136</v>
       </c>
       <c r="F23" t="n">
-        <v>314.5369271086631</v>
+        <v>314.5369271086633</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5826070204051</v>
+        <v>318.5826070204053</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2686457542721</v>
+        <v>202.2686457542723</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.84864315512749</v>
+        <v>16.84864315512766</v>
       </c>
       <c r="T23" t="n">
-        <v>111.5788515065718</v>
+        <v>111.578851506572</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6560533258536</v>
+        <v>158.6560533258538</v>
       </c>
       <c r="V23" t="n">
-        <v>235.4131398370866</v>
+        <v>235.4131398370868</v>
       </c>
       <c r="W23" t="n">
-        <v>256.9018500843647</v>
+        <v>256.9018500843649</v>
       </c>
       <c r="X23" t="n">
-        <v>277.3919820454207</v>
+        <v>277.3919820454209</v>
       </c>
       <c r="Y23" t="n">
-        <v>293.8988200230052</v>
+        <v>293.8988200230054</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.49286154888895</v>
+        <v>87.49286154888914</v>
       </c>
       <c r="C25" t="n">
-        <v>74.90770246557949</v>
+        <v>74.90770246557967</v>
       </c>
       <c r="D25" t="n">
-        <v>56.27635438516401</v>
+        <v>56.2763543851642</v>
       </c>
       <c r="E25" t="n">
-        <v>54.09484401352083</v>
+        <v>54.09484401352101</v>
       </c>
       <c r="F25" t="n">
-        <v>53.0819293898829</v>
+        <v>53.08192938988309</v>
       </c>
       <c r="G25" t="n">
-        <v>73.68668962597988</v>
+        <v>73.68668962598007</v>
       </c>
       <c r="H25" t="n">
-        <v>52.41589628127244</v>
+        <v>52.41589628127262</v>
       </c>
       <c r="I25" t="n">
-        <v>4.013301776789753</v>
+        <v>4.013301776789937</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.42990669839355</v>
+        <v>97.42990669839375</v>
       </c>
       <c r="T25" t="n">
-        <v>127.2098306431209</v>
+        <v>127.2098306431211</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8727195725645</v>
+        <v>193.8727195725647</v>
       </c>
       <c r="V25" t="n">
-        <v>159.7985246907797</v>
+        <v>159.7985246907799</v>
       </c>
       <c r="W25" t="n">
-        <v>194.1838797035427</v>
+        <v>194.1838797035429</v>
       </c>
       <c r="X25" t="n">
-        <v>133.3705367559888</v>
+        <v>133.370536755989</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190466</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958318</v>
+        <v>62.21262516958334</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374609</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124545</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145469</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958334</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851123</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,7 +3724,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239899</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3825,7 +3825,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621592</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333703</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.76146904853</v>
+        <v>971.4426753925525</v>
       </c>
       <c r="C11" t="n">
-        <v>794.9845835826743</v>
+        <v>971.4426753925525</v>
       </c>
       <c r="D11" t="n">
-        <v>794.9845835826743</v>
+        <v>971.4426753925525</v>
       </c>
       <c r="E11" t="n">
-        <v>794.9845835826743</v>
+        <v>690.2839953823302</v>
       </c>
       <c r="F11" t="n">
-        <v>429.8208828480725</v>
+        <v>690.2839953823302</v>
       </c>
       <c r="G11" t="n">
-        <v>60.3139026070729</v>
+        <v>320.7770151413307</v>
       </c>
       <c r="H11" t="n">
-        <v>60.3139026070729</v>
+        <v>66.38634028356917</v>
       </c>
       <c r="I11" t="n">
         <v>60.3139026070729</v>
@@ -5051,40 +5051,40 @@
         <v>1430.322991987626</v>
       </c>
       <c r="N11" t="n">
-        <v>1932.203707752934</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O11" t="n">
-        <v>2392.780174741104</v>
+        <v>2392.780174741105</v>
       </c>
       <c r="P11" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q11" t="n">
-        <v>2972.484210969449</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R11" t="n">
         <v>3015.695130353645</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.695130353645</v>
+        <v>2945.376336697668</v>
       </c>
       <c r="T11" t="n">
-        <v>2854.415733090637</v>
+        <v>2784.096939434661</v>
       </c>
       <c r="U11" t="n">
-        <v>2646.686921688199</v>
+        <v>2576.368128032223</v>
       </c>
       <c r="V11" t="n">
-        <v>2361.446238399634</v>
+        <v>2291.127444743658</v>
       </c>
       <c r="W11" t="n">
-        <v>2054.499787184526</v>
+        <v>1984.180993528549</v>
       </c>
       <c r="X11" t="n">
-        <v>1726.856232978452</v>
+        <v>1656.537439322475</v>
       </c>
       <c r="Y11" t="n">
-        <v>1382.539105057646</v>
+        <v>1312.220311401669</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>804.0724974406288</v>
+        <v>780.3357572765311</v>
       </c>
       <c r="C12" t="n">
-        <v>675.4416722145075</v>
+        <v>605.8827279954041</v>
       </c>
       <c r="D12" t="n">
-        <v>572.329466608262</v>
+        <v>502.7705223891585</v>
       </c>
       <c r="E12" t="n">
-        <v>413.0920116028065</v>
+        <v>343.533067383703</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3796576846972</v>
+        <v>242.8207134655937</v>
       </c>
       <c r="G12" t="n">
-        <v>175.8791926417783</v>
+        <v>106.3202484226748</v>
       </c>
       <c r="H12" t="n">
-        <v>84.05064277117071</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I12" t="n">
         <v>60.3139026070729</v>
@@ -5121,7 +5121,7 @@
         <v>141.2714653172484</v>
       </c>
       <c r="K12" t="n">
-        <v>357.7956594447324</v>
+        <v>357.7956594447325</v>
       </c>
       <c r="L12" t="n">
         <v>695.2617003494886</v>
@@ -5142,28 +5142,28 @@
         <v>2351.109172113745</v>
       </c>
       <c r="R12" t="n">
-        <v>2351.109172113745</v>
+        <v>2342.436146872485</v>
       </c>
       <c r="S12" t="n">
-        <v>2219.119793291879</v>
+        <v>2210.446768050619</v>
       </c>
       <c r="T12" t="n">
-        <v>2025.923116124917</v>
+        <v>2017.250090883657</v>
       </c>
       <c r="U12" t="n">
-        <v>1797.846232096468</v>
+        <v>1789.173206855208</v>
       </c>
       <c r="V12" t="n">
-        <v>1562.694123864726</v>
+        <v>1554.021098623465</v>
       </c>
       <c r="W12" t="n">
-        <v>1342.077429376178</v>
+        <v>1299.783741895264</v>
       </c>
       <c r="X12" t="n">
-        <v>1180.048133225651</v>
+        <v>1091.932241689731</v>
       </c>
       <c r="Y12" t="n">
-        <v>972.2878344606968</v>
+        <v>929.9941469797827</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>606.2818437768657</v>
+        <v>606.2818437768644</v>
       </c>
       <c r="C13" t="n">
-        <v>483.1678649039645</v>
+        <v>483.1678649039632</v>
       </c>
       <c r="D13" t="n">
-        <v>378.8734295466346</v>
+        <v>378.8734295466331</v>
       </c>
       <c r="E13" t="n">
-        <v>378.8734295466346</v>
+        <v>276.7825400192457</v>
       </c>
       <c r="F13" t="n">
-        <v>277.80568610373</v>
+        <v>175.7147965763411</v>
       </c>
       <c r="G13" t="n">
-        <v>216.6994925415628</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="H13" t="n">
-        <v>115.2806140769254</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I13" t="n">
         <v>60.3139026070729</v>
       </c>
       <c r="J13" t="n">
-        <v>142.3669419811939</v>
+        <v>142.3669419811937</v>
       </c>
       <c r="K13" t="n">
-        <v>378.1509821412429</v>
+        <v>378.1509821412426</v>
       </c>
       <c r="L13" t="n">
-        <v>722.8403768204942</v>
+        <v>722.8403768204938</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.214820829984</v>
+        <v>1094.214820829983</v>
       </c>
       <c r="N13" t="n">
         <v>1463.261294603307</v>
@@ -5224,25 +5224,25 @@
         <v>2119.297130009048</v>
       </c>
       <c r="S13" t="n">
-        <v>1971.426488614</v>
+        <v>1971.426488613999</v>
       </c>
       <c r="T13" t="n">
-        <v>1794.990021004764</v>
+        <v>1794.990021004763</v>
       </c>
       <c r="U13" t="n">
         <v>1551.703076616471</v>
       </c>
       <c r="V13" t="n">
-        <v>1342.84079246559</v>
+        <v>1342.840792465589</v>
       </c>
       <c r="W13" t="n">
         <v>1099.245826483635</v>
       </c>
       <c r="X13" t="n">
-        <v>917.0784796406239</v>
+        <v>917.0784796406228</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.1081045520996</v>
+        <v>742.1081045520984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.48161986908</v>
+        <v>1315.759803313359</v>
       </c>
       <c r="C14" t="n">
-        <v>1389.341306983674</v>
+        <v>992.6194904279536</v>
       </c>
       <c r="D14" t="n">
-        <v>1389.341306983674</v>
+        <v>992.6194904279536</v>
       </c>
       <c r="E14" t="n">
-        <v>1049.375258440436</v>
+        <v>690.2839953823302</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2115577058339</v>
+        <v>690.2839953823302</v>
       </c>
       <c r="G14" t="n">
-        <v>314.7045774648343</v>
+        <v>320.7770151413307</v>
       </c>
       <c r="H14" t="n">
-        <v>60.3139026070729</v>
+        <v>66.38634028356918</v>
       </c>
       <c r="I14" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J14" t="n">
-        <v>227.8366650533167</v>
+        <v>227.8366650533164</v>
       </c>
       <c r="K14" t="n">
-        <v>529.6483784099296</v>
+        <v>529.6483784099294</v>
       </c>
       <c r="L14" t="n">
         <v>940.9742587040291</v>
@@ -5291,22 +5291,22 @@
         <v>1932.203707752935</v>
       </c>
       <c r="O14" t="n">
-        <v>2392.780174741104</v>
+        <v>2392.780174741105</v>
       </c>
       <c r="P14" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q14" t="n">
-        <v>2972.484210969449</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R14" t="n">
-        <v>3015.695130353645</v>
+        <v>3015.695130353646</v>
       </c>
       <c r="S14" t="n">
-        <v>2945.376336697668</v>
+        <v>2945.376336697669</v>
       </c>
       <c r="T14" t="n">
-        <v>2784.09693943466</v>
+        <v>2784.096939434661</v>
       </c>
       <c r="U14" t="n">
         <v>2576.368128032223</v>
@@ -5315,13 +5315,13 @@
         <v>2291.127444743658</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.127444743658</v>
+        <v>1984.18099352855</v>
       </c>
       <c r="X14" t="n">
-        <v>2056.798747789886</v>
+        <v>1656.537439322476</v>
       </c>
       <c r="Y14" t="n">
-        <v>1712.48161986908</v>
+        <v>1656.537439322476</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>826.1579613315365</v>
+        <v>715.956605904709</v>
       </c>
       <c r="C15" t="n">
-        <v>651.7049320504095</v>
+        <v>560.0605239403984</v>
       </c>
       <c r="D15" t="n">
-        <v>502.7705223891583</v>
+        <v>411.1261142791471</v>
       </c>
       <c r="E15" t="n">
-        <v>343.5330673837028</v>
+        <v>297.7108633286973</v>
       </c>
       <c r="F15" t="n">
-        <v>196.9985094105878</v>
+        <v>196.998509410588</v>
       </c>
       <c r="G15" t="n">
-        <v>106.3202484226748</v>
+        <v>106.3202484226749</v>
       </c>
       <c r="H15" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707293</v>
       </c>
       <c r="I15" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707293</v>
       </c>
       <c r="J15" t="n">
         <v>141.2714653172484</v>
       </c>
       <c r="K15" t="n">
-        <v>357.7956594447323</v>
+        <v>357.7956594447325</v>
       </c>
       <c r="L15" t="n">
-        <v>695.2617003494884</v>
+        <v>695.2617003494886</v>
       </c>
       <c r="M15" t="n">
-        <v>1108.425521012771</v>
+        <v>1108.425521012772</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.933203517441</v>
+        <v>1546.933203517442</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.862268380989</v>
+        <v>1925.86226838099</v>
       </c>
       <c r="P15" t="n">
-        <v>2210.653183667181</v>
+        <v>2210.653183667182</v>
       </c>
       <c r="Q15" t="n">
         <v>2351.109172113745</v>
       </c>
       <c r="R15" t="n">
-        <v>2351.109172113745</v>
+        <v>2342.436146872485</v>
       </c>
       <c r="S15" t="n">
-        <v>2219.119793291879</v>
+        <v>2210.446768050619</v>
       </c>
       <c r="T15" t="n">
-        <v>2025.923116124916</v>
+        <v>2017.250090883657</v>
       </c>
       <c r="U15" t="n">
-        <v>1797.846232096467</v>
+        <v>1789.173206855208</v>
       </c>
       <c r="V15" t="n">
-        <v>1608.51632791973</v>
+        <v>1554.021098623465</v>
       </c>
       <c r="W15" t="n">
-        <v>1364.162893267086</v>
+        <v>1299.783741895264</v>
       </c>
       <c r="X15" t="n">
-        <v>1156.311393061553</v>
+        <v>1091.932241689731</v>
       </c>
       <c r="Y15" t="n">
-        <v>994.3732983516045</v>
+        <v>884.1719429247771</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.2956229397735</v>
+        <v>606.2818437768642</v>
       </c>
       <c r="C16" t="n">
-        <v>591.1816440668723</v>
+        <v>483.167864903963</v>
       </c>
       <c r="D16" t="n">
-        <v>486.8872087095423</v>
+        <v>440.7861767364906</v>
       </c>
       <c r="E16" t="n">
-        <v>384.7963191821549</v>
+        <v>338.6952872091032</v>
       </c>
       <c r="F16" t="n">
-        <v>283.7285757392503</v>
+        <v>338.6952872091032</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7327810717103</v>
+        <v>216.6994925415629</v>
       </c>
       <c r="H16" t="n">
-        <v>60.3139026070729</v>
+        <v>115.2806140769255</v>
       </c>
       <c r="I16" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707293</v>
       </c>
       <c r="J16" t="n">
-        <v>142.3669419811938</v>
+        <v>142.3669419811937</v>
       </c>
       <c r="K16" t="n">
         <v>378.1509821412428</v>
       </c>
       <c r="L16" t="n">
-        <v>722.840376820494</v>
+        <v>722.8403768204939</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.214820829984</v>
+        <v>1094.214820829983</v>
       </c>
       <c r="N16" t="n">
         <v>1463.261294603307</v>
@@ -5458,28 +5458,28 @@
         <v>2168.483489860809</v>
       </c>
       <c r="R16" t="n">
-        <v>2119.297130009049</v>
+        <v>2119.297130009048</v>
       </c>
       <c r="S16" t="n">
-        <v>2079.440267776909</v>
+        <v>1971.426488614</v>
       </c>
       <c r="T16" t="n">
-        <v>1903.003800167672</v>
+        <v>1794.990021004763</v>
       </c>
       <c r="U16" t="n">
-        <v>1659.716855779379</v>
+        <v>1551.703076616471</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.854571628498</v>
+        <v>1342.84079246559</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.259605646543</v>
+        <v>1099.245826483634</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.092258803532</v>
+        <v>917.0784796406226</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.1218837150075</v>
+        <v>742.1081045520982</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.513248945856</v>
+        <v>1418.169969439459</v>
       </c>
       <c r="C17" t="n">
-        <v>1146.822569008523</v>
+        <v>1142.479289502126</v>
       </c>
       <c r="D17" t="n">
-        <v>881.8287074048521</v>
+        <v>877.485427898455</v>
       </c>
       <c r="E17" t="n">
-        <v>589.3122918096872</v>
+        <v>584.9690123032897</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3122918096872</v>
+        <v>267.2549445167612</v>
       </c>
       <c r="G17" t="n">
-        <v>267.2549445167609</v>
+        <v>267.2549445167612</v>
       </c>
       <c r="H17" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="I17" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J17" t="n">
         <v>227.8366650533164</v>
@@ -5519,31 +5519,31 @@
         <v>529.6483784099294</v>
       </c>
       <c r="L17" t="n">
-        <v>940.9742587040282</v>
+        <v>940.9742587040291</v>
       </c>
       <c r="M17" t="n">
-        <v>1430.322991987626</v>
+        <v>1430.322991987627</v>
       </c>
       <c r="N17" t="n">
-        <v>1932.203707752934</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O17" t="n">
         <v>2392.780174741104</v>
       </c>
       <c r="P17" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q17" t="n">
-        <v>2972.484210969449</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R17" t="n">
-        <v>3015.695130353645</v>
+        <v>3015.695130353646</v>
       </c>
       <c r="S17" t="n">
-        <v>2992.825969645741</v>
+        <v>2992.825969645742</v>
       </c>
       <c r="T17" t="n">
-        <v>2878.996205330807</v>
+        <v>2878.996205330808</v>
       </c>
       <c r="U17" t="n">
         <v>2718.717026876443</v>
@@ -5552,13 +5552,13 @@
         <v>2480.925976535951</v>
       </c>
       <c r="W17" t="n">
-        <v>2292.902668237632</v>
+        <v>2221.429158268916</v>
       </c>
       <c r="X17" t="n">
-        <v>2012.708746979631</v>
+        <v>1941.235237010915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.841252006899</v>
+        <v>1711.497972500502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5391096056459</v>
+        <v>756.4387227319595</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0860803245189</v>
+        <v>675.2575304539114</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1516706632676</v>
+        <v>526.3231207926601</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9142156578122</v>
+        <v>367.0856657872046</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3796576846972</v>
+        <v>220.5511078140896</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8791926417783</v>
+        <v>84.05064277117073</v>
       </c>
       <c r="H18" t="n">
-        <v>84.05064277117071</v>
+        <v>84.05064277117073</v>
       </c>
       <c r="I18" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J18" t="n">
         <v>141.2714653172484</v>
       </c>
       <c r="K18" t="n">
-        <v>357.7956594447324</v>
+        <v>357.7956594447325</v>
       </c>
       <c r="L18" t="n">
         <v>695.2617003494886</v>
@@ -5616,28 +5616,28 @@
         <v>2351.109172113745</v>
       </c>
       <c r="R18" t="n">
-        <v>2351.109172113745</v>
+        <v>2342.436146872485</v>
       </c>
       <c r="S18" t="n">
-        <v>2219.119793291879</v>
+        <v>2210.446768050619</v>
       </c>
       <c r="T18" t="n">
-        <v>2119.194953127996</v>
+        <v>2017.250090883657</v>
       </c>
       <c r="U18" t="n">
-        <v>1921.483873553066</v>
+        <v>1789.173206855208</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.603602324402</v>
+        <v>1554.021098623465</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.366245596201</v>
+        <v>1299.783741895264</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.514745390668</v>
+        <v>1132.414358516981</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.754446625714</v>
+        <v>924.6540597520275</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.1149037731125</v>
+        <v>437.1149037731138</v>
       </c>
       <c r="C19" t="n">
-        <v>361.4505578482847</v>
+        <v>361.4505578482858</v>
       </c>
       <c r="D19" t="n">
-        <v>304.6057554390281</v>
+        <v>304.6057554390291</v>
       </c>
       <c r="E19" t="n">
-        <v>249.9644988597141</v>
+        <v>249.9644988597149</v>
       </c>
       <c r="F19" t="n">
-        <v>196.3463883648829</v>
+        <v>196.3463883648835</v>
       </c>
       <c r="G19" t="n">
-        <v>121.800226645416</v>
+        <v>121.8002266454164</v>
       </c>
       <c r="H19" t="n">
-        <v>67.83098112885202</v>
+        <v>67.83098112885223</v>
       </c>
       <c r="I19" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J19" t="n">
-        <v>155.5724483241044</v>
+        <v>155.5724483241042</v>
       </c>
       <c r="K19" t="n">
-        <v>332.1855450553542</v>
+        <v>332.1855450553538</v>
       </c>
       <c r="L19" t="n">
-        <v>600.6811941755133</v>
+        <v>562.5303704608727</v>
       </c>
       <c r="M19" t="n">
-        <v>841.8364591370583</v>
+        <v>803.6856354224176</v>
       </c>
       <c r="N19" t="n">
-        <v>1087.288778486772</v>
+        <v>1049.137954772131</v>
       </c>
       <c r="O19" t="n">
-        <v>1300.669141183148</v>
+        <v>1262.518317468506</v>
       </c>
       <c r="P19" t="n">
-        <v>1477.384712993291</v>
+        <v>1477.384712993295</v>
       </c>
       <c r="Q19" t="n">
-        <v>1572.269853324396</v>
+        <v>1572.269853324399</v>
       </c>
       <c r="R19" t="n">
-        <v>1570.533126420709</v>
+        <v>1570.533126420712</v>
       </c>
       <c r="S19" t="n">
-        <v>1470.112117973734</v>
+        <v>1470.112117973737</v>
       </c>
       <c r="T19" t="n">
-        <v>1341.12528331257</v>
+        <v>1341.125283312573</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.287971872351</v>
+        <v>1145.287971872354</v>
       </c>
       <c r="V19" t="n">
-        <v>983.8753206695436</v>
+        <v>983.8753206695459</v>
       </c>
       <c r="W19" t="n">
-        <v>787.7299876356622</v>
+        <v>787.7299876356642</v>
       </c>
       <c r="X19" t="n">
-        <v>653.0122737407239</v>
+        <v>653.0122737407257</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.491531600273</v>
+        <v>525.4915316002746</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1740.227316732384</v>
+        <v>1351.03973897714</v>
       </c>
       <c r="C20" t="n">
-        <v>1464.536636795052</v>
+        <v>1075.349059039807</v>
       </c>
       <c r="D20" t="n">
-        <v>1199.542775191381</v>
+        <v>810.3551974361358</v>
       </c>
       <c r="E20" t="n">
-        <v>907.0263595962155</v>
+        <v>517.8387818409708</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3122918096871</v>
+        <v>517.8387818409708</v>
       </c>
       <c r="G20" t="n">
-        <v>267.254944516761</v>
+        <v>267.2549445167612</v>
       </c>
       <c r="H20" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="I20" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J20" t="n">
-        <v>227.8366650533164</v>
+        <v>227.8366650533176</v>
       </c>
       <c r="K20" t="n">
-        <v>529.6483784099293</v>
+        <v>529.6483784099305</v>
       </c>
       <c r="L20" t="n">
-        <v>940.974258704028</v>
+        <v>940.9742587040298</v>
       </c>
       <c r="M20" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987627</v>
       </c>
       <c r="N20" t="n">
-        <v>1932.203707752934</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O20" t="n">
-        <v>2392.780174741104</v>
+        <v>2392.780174741105</v>
       </c>
       <c r="P20" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q20" t="n">
-        <v>2972.484210969449</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R20" t="n">
-        <v>3015.695130353645</v>
+        <v>3015.695130353646</v>
       </c>
       <c r="S20" t="n">
-        <v>2992.825969645741</v>
+        <v>2992.825969645742</v>
       </c>
       <c r="T20" t="n">
-        <v>2878.996205330807</v>
+        <v>2878.996205330808</v>
       </c>
       <c r="U20" t="n">
-        <v>2718.717026876443</v>
+        <v>2718.717026876444</v>
       </c>
       <c r="V20" t="n">
-        <v>2480.925976535951</v>
+        <v>2480.925976535952</v>
       </c>
       <c r="W20" t="n">
-        <v>2221.429158268916</v>
+        <v>2221.429158268917</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.235237010915</v>
+        <v>1941.235237010916</v>
       </c>
       <c r="Y20" t="n">
-        <v>1740.227316732384</v>
+        <v>1644.367742038183</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5391096056461</v>
+        <v>809.2284429077871</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0860803245191</v>
+        <v>728.047250629739</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1516706632679</v>
+        <v>579.1128409684877</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9142156578123</v>
+        <v>419.8753859630322</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3796576846972</v>
+        <v>273.3408279899172</v>
       </c>
       <c r="G21" t="n">
-        <v>175.8791926417784</v>
+        <v>136.8403629469984</v>
       </c>
       <c r="H21" t="n">
-        <v>84.05064277117074</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="I21" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J21" t="n">
         <v>141.2714653172484</v>
@@ -5853,28 +5853,28 @@
         <v>2351.109172113745</v>
       </c>
       <c r="R21" t="n">
-        <v>2351.109172113745</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S21" t="n">
-        <v>2312.391630294958</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T21" t="n">
-        <v>2149.560757581515</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U21" t="n">
-        <v>1921.483873553066</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V21" t="n">
-        <v>1686.331765321323</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W21" t="n">
-        <v>1432.094408593122</v>
+        <v>1299.783741895263</v>
       </c>
       <c r="X21" t="n">
-        <v>1224.242908387589</v>
+        <v>1091.93224168973</v>
       </c>
       <c r="Y21" t="n">
-        <v>1016.482609622635</v>
+        <v>884.1719429247762</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.1149037731125</v>
+        <v>437.1149037731138</v>
       </c>
       <c r="C22" t="n">
-        <v>361.4505578482847</v>
+        <v>361.4505578482858</v>
       </c>
       <c r="D22" t="n">
-        <v>304.6057554390281</v>
+        <v>304.6057554390291</v>
       </c>
       <c r="E22" t="n">
-        <v>249.9644988597141</v>
+        <v>249.9644988597149</v>
       </c>
       <c r="F22" t="n">
-        <v>196.3463883648829</v>
+        <v>196.3463883648835</v>
       </c>
       <c r="G22" t="n">
-        <v>121.800226645416</v>
+        <v>121.8002266454164</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83098112885203</v>
+        <v>67.83098112885224</v>
       </c>
       <c r="I22" t="n">
-        <v>60.3139026070729</v>
+        <v>60.31390260707292</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8723272336005</v>
+        <v>155.5724483241042</v>
       </c>
       <c r="K22" t="n">
-        <v>365.4854239648503</v>
+        <v>332.1855450553538</v>
       </c>
       <c r="L22" t="n">
-        <v>595.8302493703693</v>
+        <v>600.681194175518</v>
       </c>
       <c r="M22" t="n">
-        <v>836.9855143319144</v>
+        <v>841.8364591370629</v>
       </c>
       <c r="N22" t="n">
-        <v>1082.437833681628</v>
+        <v>1087.288778486776</v>
       </c>
       <c r="O22" t="n">
-        <v>1295.818196378003</v>
+        <v>1300.669141183152</v>
       </c>
       <c r="P22" t="n">
-        <v>1472.533768188147</v>
+        <v>1477.384712993295</v>
       </c>
       <c r="Q22" t="n">
-        <v>1572.269853324396</v>
+        <v>1572.269853324399</v>
       </c>
       <c r="R22" t="n">
-        <v>1570.533126420709</v>
+        <v>1570.533126420712</v>
       </c>
       <c r="S22" t="n">
-        <v>1470.112117973734</v>
+        <v>1470.112117973737</v>
       </c>
       <c r="T22" t="n">
-        <v>1341.12528331257</v>
+        <v>1341.125283312573</v>
       </c>
       <c r="U22" t="n">
-        <v>1145.287971872351</v>
+        <v>1145.287971872354</v>
       </c>
       <c r="V22" t="n">
-        <v>983.8753206695436</v>
+        <v>983.8753206695459</v>
       </c>
       <c r="W22" t="n">
-        <v>787.7299876356622</v>
+        <v>787.7299876356642</v>
       </c>
       <c r="X22" t="n">
-        <v>653.0122737407239</v>
+        <v>653.0122737407257</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.491531600273</v>
+        <v>525.4915316002746</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.082260058034</v>
+        <v>1745.082260058035</v>
       </c>
       <c r="C23" t="n">
         <v>1469.391580120702</v>
@@ -5975,64 +5975,64 @@
         <v>911.8813029218657</v>
       </c>
       <c r="F23" t="n">
-        <v>594.1672351353373</v>
+        <v>594.1672351353375</v>
       </c>
       <c r="G23" t="n">
-        <v>272.3666219834126</v>
+        <v>272.3666219834129</v>
       </c>
       <c r="H23" t="n">
-        <v>68.05485859525892</v>
+        <v>68.05485859525896</v>
       </c>
       <c r="I23" t="n">
-        <v>68.05485859525892</v>
+        <v>68.05485859525896</v>
       </c>
       <c r="J23" t="n">
-        <v>332.5283555449838</v>
+        <v>256.9339895542844</v>
       </c>
       <c r="K23" t="n">
-        <v>666.3477292348302</v>
+        <v>666.3477292348325</v>
       </c>
       <c r="L23" t="n">
-        <v>1117.381942483239</v>
+        <v>1117.381942483241</v>
       </c>
       <c r="M23" t="n">
-        <v>1650.913847155164</v>
+        <v>1650.913847155166</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.692664213946</v>
+        <v>2197.692664213948</v>
       </c>
       <c r="O23" t="n">
-        <v>2700.665135093283</v>
+        <v>2700.665135093285</v>
       </c>
       <c r="P23" t="n">
-        <v>3095.439501450461</v>
+        <v>3095.439501450463</v>
       </c>
       <c r="Q23" t="n">
-        <v>3343.725863206143</v>
+        <v>3343.725863206146</v>
       </c>
       <c r="R23" t="n">
-        <v>3402.742929762946</v>
+        <v>3402.742929762948</v>
       </c>
       <c r="S23" t="n">
-        <v>3385.72409829312</v>
+        <v>3385.724098293122</v>
       </c>
       <c r="T23" t="n">
-        <v>3273.018187680421</v>
+        <v>3273.018187680423</v>
       </c>
       <c r="U23" t="n">
-        <v>3112.759547957337</v>
+        <v>3112.759547957339</v>
       </c>
       <c r="V23" t="n">
-        <v>2874.968497616845</v>
+        <v>2874.968497616847</v>
       </c>
       <c r="W23" t="n">
-        <v>2615.47167934981</v>
+        <v>2615.471679349812</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.277758091809</v>
+        <v>2335.277758091811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2038.410263119076</v>
+        <v>2038.410263119078</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.0865966441842</v>
+        <v>943.0865966441843</v>
       </c>
       <c r="C24" t="n">
-        <v>768.6335673630572</v>
+        <v>768.6335673630573</v>
       </c>
       <c r="D24" t="n">
-        <v>619.6991577018059</v>
+        <v>619.6991577018061</v>
       </c>
       <c r="E24" t="n">
-        <v>460.4617026963504</v>
+        <v>460.4617026963506</v>
       </c>
       <c r="F24" t="n">
-        <v>313.9271447232353</v>
+        <v>313.9271447232356</v>
       </c>
       <c r="G24" t="n">
-        <v>177.5640445558534</v>
+        <v>177.5640445558544</v>
       </c>
       <c r="H24" t="n">
-        <v>87.06215019372095</v>
+        <v>87.06215019372138</v>
       </c>
       <c r="I24" t="n">
-        <v>68.05485859525892</v>
+        <v>68.05485859525896</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7321280858762</v>
+        <v>161.7321280858766</v>
       </c>
       <c r="K24" t="n">
-        <v>399.9963270662234</v>
+        <v>399.996327066224</v>
       </c>
       <c r="L24" t="n">
-        <v>766.6944873788888</v>
+        <v>766.6944873788891</v>
       </c>
       <c r="M24" t="n">
         <v>1213.970812601205</v>
       </c>
       <c r="N24" t="n">
-        <v>1687.493856155659</v>
+        <v>1687.49385615566</v>
       </c>
       <c r="O24" t="n">
         <v>2098.455135573714</v>
@@ -6099,10 +6099,10 @@
         <v>2244.371044460268</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.303197594683</v>
+        <v>2016.303197594684</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.15108936294</v>
+        <v>1781.151089362941</v>
       </c>
       <c r="W24" t="n">
         <v>1526.913732634739</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.253563583329</v>
+        <v>440.2535635833303</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5892176585012</v>
+        <v>364.5892176585023</v>
       </c>
       <c r="D25" t="n">
-        <v>307.7444152492446</v>
+        <v>307.7444152492455</v>
       </c>
       <c r="E25" t="n">
-        <v>253.1031586699306</v>
+        <v>253.1031586699314</v>
       </c>
       <c r="F25" t="n">
-        <v>199.4850481750994</v>
+        <v>199.4850481751</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0540485528975</v>
+        <v>125.0540485528979</v>
       </c>
       <c r="H25" t="n">
-        <v>72.10869877383443</v>
+        <v>72.10869877383466</v>
       </c>
       <c r="I25" t="n">
-        <v>68.05485859525892</v>
+        <v>68.05485859525896</v>
       </c>
       <c r="J25" t="n">
-        <v>171.2933395794162</v>
+        <v>171.2933395794161</v>
       </c>
       <c r="K25" t="n">
-        <v>361.0199212938045</v>
+        <v>361.0199212938041</v>
       </c>
       <c r="L25" t="n">
-        <v>608.1454926628796</v>
+        <v>608.1454926628791</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9937014087953</v>
+        <v>781.0317247017593</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.756289178321</v>
+        <v>1043.756289178325</v>
       </c>
       <c r="O25" t="n">
-        <v>1273.090365843228</v>
+        <v>1273.090365843232</v>
       </c>
       <c r="P25" t="n">
-        <v>1463.457096042705</v>
+        <v>1463.457096042708</v>
       </c>
       <c r="Q25" t="n">
-        <v>1567.793590847964</v>
+        <v>1567.793590847967</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.166487151334</v>
+        <v>1571.166487151338</v>
       </c>
       <c r="S25" t="n">
-        <v>1472.75243998124</v>
+        <v>1472.752439981243</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.257661553845</v>
+        <v>1344.257661553848</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.426631682568</v>
+        <v>1148.42663168257</v>
       </c>
       <c r="V25" t="n">
-        <v>987.0139804797601</v>
+        <v>987.0139804797624</v>
       </c>
       <c r="W25" t="n">
-        <v>790.8686474458787</v>
+        <v>790.8686474458807</v>
       </c>
       <c r="X25" t="n">
-        <v>656.1509335509404</v>
+        <v>656.1509335509422</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6301914104895</v>
+        <v>528.6301914104911</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6215,58 +6215,58 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>86.49114167389916</v>
+        <v>86.49114167389907</v>
       </c>
       <c r="J26" t="n">
-        <v>489.2813069056843</v>
+        <v>321.8756578853311</v>
       </c>
       <c r="K26" t="n">
-        <v>869.6060658479375</v>
+        <v>702.2004168275841</v>
       </c>
       <c r="L26" t="n">
-        <v>1367.145664348753</v>
+        <v>1492.952546040312</v>
       </c>
       <c r="M26" t="n">
-        <v>1947.182954273084</v>
+        <v>2072.989835964644</v>
       </c>
       <c r="N26" t="n">
-        <v>2540.467156584273</v>
+        <v>2666.274038275832</v>
       </c>
       <c r="O26" t="n">
-        <v>3089.945012716017</v>
+        <v>3215.751894407576</v>
       </c>
       <c r="P26" t="n">
-        <v>3531.224764325602</v>
+        <v>3657.031646017161</v>
       </c>
       <c r="Q26" t="n">
-        <v>3886.764137350995</v>
+        <v>3951.82339302525</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834456</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.656102857284</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676536</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960294</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973125</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982154</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6449,58 +6449,58 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>86.49114167389911</v>
+        <v>86.49114167389907</v>
       </c>
       <c r="J29" t="n">
-        <v>489.2813069056842</v>
+        <v>321.8756578853311</v>
       </c>
       <c r="K29" t="n">
-        <v>869.6060658479373</v>
+        <v>702.2004168275841</v>
       </c>
       <c r="L29" t="n">
-        <v>1367.145664348753</v>
+        <v>1492.952546040312</v>
       </c>
       <c r="M29" t="n">
-        <v>1947.182954273084</v>
+        <v>2072.989835964644</v>
       </c>
       <c r="N29" t="n">
-        <v>2540.467156584273</v>
+        <v>2666.274038275832</v>
       </c>
       <c r="O29" t="n">
-        <v>3089.945012716016</v>
+        <v>3215.751894407576</v>
       </c>
       <c r="P29" t="n">
-        <v>3531.224764325601</v>
+        <v>3657.031646017161</v>
       </c>
       <c r="Q29" t="n">
-        <v>3886.764137350996</v>
+        <v>3951.82339302525</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960313</v>
@@ -6628,16 +6628,16 @@
         <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572252</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>86.49114167389914</v>
+        <v>86.49114167389912</v>
       </c>
       <c r="J32" t="n">
         <v>321.8756578853312</v>
@@ -6707,43 +6707,43 @@
         <v>1199.7400153284</v>
       </c>
       <c r="M32" t="n">
-        <v>2072.989835964643</v>
+        <v>2072.989835964644</v>
       </c>
       <c r="N32" t="n">
         <v>2666.274038275832</v>
       </c>
       <c r="O32" t="n">
-        <v>3215.751894407575</v>
+        <v>3215.751894407576</v>
       </c>
       <c r="P32" t="n">
-        <v>3657.03164601716</v>
+        <v>3657.031646017161</v>
       </c>
       <c r="Q32" t="n">
-        <v>3951.823393025249</v>
+        <v>3951.82339302525</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6853,28 +6853,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960305</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973136</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6959,28 +6959,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,34 +7005,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.3348699696229</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854744</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>693.2037955104961</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N37" t="n">
-        <v>961.2205055661675</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.022980773561</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734893</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226755</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J40" t="n">
-        <v>79.653846789707</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K40" t="n">
-        <v>253.5298502264971</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746782</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996999</v>
+        <v>791.2306453564041</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.104631555371</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773561</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P40" t="n">
         <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734893</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7412,7 +7412,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052369</v>
@@ -7439,19 +7439,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
         <v>458.9189605332749</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
@@ -7564,55 +7564,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226754</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970699</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>177.9647010573774</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055585</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M43" t="n">
-        <v>673.3800484738761</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295474</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.022980773561</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
         <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7652,16 +7652,16 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7679,7 +7679,7 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970709</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>177.9647010573775</v>
+        <v>350.2377232523197</v>
       </c>
       <c r="L46" t="n">
-        <v>430.3824180055586</v>
+        <v>602.6554402005008</v>
       </c>
       <c r="M46" t="n">
-        <v>694.5227723305803</v>
+        <v>866.7957945255225</v>
       </c>
       <c r="N46" t="n">
-        <v>962.5394823862518</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O46" t="n">
-        <v>1197.165704630266</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552142</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936507</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>38.53618557034346</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>38.53618557034827</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9556,13 +9556,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>38.53618557034889</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.89994424762051</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>296.1742734463766</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.36123840131688</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.6362413227213</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094467</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>296.1742734463766</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.36123840131967</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094467</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>296.1742734463761</v>
+        <v>296.1742734463766</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272248</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.59979314535701</v>
+        <v>319.9089097565519</v>
       </c>
       <c r="D11" t="n">
         <v>309.3190596062273</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5663880578061</v>
+        <v>58.21929484768611</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>361.5120637272558</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>251.8467681091838</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.011713299731234</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.61560571941715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0699806321135</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.28070509431927</v>
+        <v>6.528951691289819</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.4046896799911</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.41704435515403</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.3698596490249</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>309.3190596062273</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>37.25424796263906</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>361.5120637272558</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.011713299731269</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>303.8769867029573</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>92.38170867977884</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>340.8739566415979</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>61.29361971795896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.0570660084756</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.41704435515399</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>106.9336413712793</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>314.5369271086631</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>318.8367738199971</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>70.75877486902837</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>66.45892815769518</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.3947230304323</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>314.5369271086633</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>70.75877486902954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.9009789472592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>967802.5593691919</v>
+        <v>967802.559369192</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>967802.5593691922</v>
+        <v>967802.5593691921</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.352422667</v>
+        <v>368674.3524226671</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.3524226674</v>
+        <v>368674.3524226672</v>
       </c>
       <c r="D2" t="n">
         <v>368708.1607481574</v>
       </c>
       <c r="E2" t="n">
-        <v>330152.4859063526</v>
+        <v>330152.4859063528</v>
       </c>
       <c r="F2" t="n">
         <v>330152.4859063528</v>
       </c>
       <c r="G2" t="n">
-        <v>355667.5043940872</v>
+        <v>355667.5043940871</v>
       </c>
       <c r="H2" t="n">
         <v>355667.5043940871</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389284</v>
+        <v>369468.7964389283</v>
       </c>
       <c r="J2" t="n">
         <v>369468.7964389281</v>
       </c>
       <c r="K2" t="n">
+        <v>369468.7964389281</v>
+      </c>
+      <c r="L2" t="n">
         <v>369468.7964389279</v>
       </c>
-      <c r="L2" t="n">
-        <v>369468.7964389278</v>
-      </c>
       <c r="M2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487428</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73322.83076787079</v>
+        <v>73322.83076787088</v>
       </c>
       <c r="J3" t="n">
         <v>42818.23127774256</v>
       </c>
       <c r="K3" t="n">
-        <v>4.314097168389708e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
         <v>182860.3540168137</v>
@@ -26424,40 +26424,40 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>65842.91089474865</v>
+        <v>65842.91089474858</v>
       </c>
       <c r="F4" t="n">
-        <v>65842.91089474868</v>
+        <v>65842.91089474858</v>
       </c>
       <c r="G4" t="n">
-        <v>97920.2195205696</v>
+        <v>97920.21952056947</v>
       </c>
       <c r="H4" t="n">
-        <v>97920.21952056963</v>
+        <v>97920.2195205695</v>
       </c>
       <c r="I4" t="n">
         <v>93877.11913013482</v>
       </c>
       <c r="J4" t="n">
+        <v>94970.87945926853</v>
+      </c>
+      <c r="K4" t="n">
         <v>94970.87945926854</v>
       </c>
-      <c r="K4" t="n">
-        <v>94970.87945926859</v>
-      </c>
       <c r="L4" t="n">
-        <v>94970.87945926865</v>
+        <v>94970.87945926863</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657692</v>
+        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>72031.11964579641</v>
       </c>
       <c r="F5" t="n">
-        <v>72031.1196457964</v>
+        <v>72031.11964579643</v>
       </c>
       <c r="G5" t="n">
         <v>75980.27240618487</v>
@@ -26488,10 +26488,10 @@
         <v>75980.27240618487</v>
       </c>
       <c r="I5" t="n">
-        <v>83241.68196969242</v>
+        <v>83241.68196969244</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,13 +26500,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132569.2075090642</v>
+        <v>-132573.6210869322</v>
       </c>
       <c r="C6" t="n">
-        <v>-132569.2075090639</v>
+        <v>-132573.6210869321</v>
       </c>
       <c r="D6" t="n">
-        <v>-256890.3962238492</v>
+        <v>-256894.6219776869</v>
       </c>
       <c r="E6" t="n">
-        <v>-705230.3246581716</v>
+        <v>-705448.7486055746</v>
       </c>
       <c r="F6" t="n">
-        <v>192278.4553658078</v>
+        <v>192060.0314184046</v>
       </c>
       <c r="G6" t="n">
-        <v>144186.9031724584</v>
+        <v>144110.2293277652</v>
       </c>
       <c r="H6" t="n">
-        <v>181767.0124673327</v>
+        <v>181690.3386226394</v>
       </c>
       <c r="I6" t="n">
-        <v>119027.1645712303</v>
+        <v>119027.1645712302</v>
       </c>
       <c r="J6" t="n">
-        <v>142301.744027111</v>
+        <v>142301.7440271109</v>
       </c>
       <c r="K6" t="n">
-        <v>185119.9753048531</v>
+        <v>185119.9753048534</v>
       </c>
       <c r="L6" t="n">
-        <v>147539.8660099789</v>
+        <v>147539.866009979</v>
       </c>
       <c r="M6" t="n">
         <v>10315.70728928676</v>
@@ -26558,10 +26558,10 @@
         <v>193176.0613061006</v>
       </c>
       <c r="O6" t="n">
-        <v>193176.0613061007</v>
+        <v>193176.0613061005</v>
       </c>
       <c r="P6" t="n">
-        <v>193176.0613061005</v>
+        <v>193176.0613061004</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G2" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H2" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I2" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="F4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884115</v>
       </c>
       <c r="G4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884114</v>
       </c>
       <c r="H4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884114</v>
       </c>
       <c r="I4" t="n">
-        <v>850.6857324407365</v>
+        <v>850.6857324407371</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951229</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.7619498523253</v>
+        <v>96.76194985232564</v>
       </c>
       <c r="J4" t="n">
         <v>163.6507287678776</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.9887767820898</v>
+        <v>570.9887767820894</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9237825884112</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>18.37137784364828</v>
       </c>
       <c r="C12" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.49937276245683</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.586294988847868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>33.28445561725701</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="K13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="L13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="M13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="N13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="O13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="P13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="R13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="S13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="15">
@@ -28406,25 +28406,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>18.37137784364825</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G15" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H15" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I15" t="n">
-        <v>23.49937276245686</v>
+        <v>23.49937276245683</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.586294988847897</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>9.785082854801203</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="C16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="D16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="E16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="F16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="G16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="H16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="I16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="J16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="K16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="L16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="M16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="N16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="O16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="P16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="R16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="S16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="T16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="U16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="V16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="W16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="X16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.36398201445564</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I17" t="n">
         <v>51.37569531418694</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>90.91026437190155</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.586294988847868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>92.33911863304834</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>30.06214640898315</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>92.33911863304834</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>40.07729565897785</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="K19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="L19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="M19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="N19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="O19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="P19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="R19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="S19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I20" t="n">
         <v>51.37569531418697</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>15.14906863537537</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.586294988847897</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.33911863304834</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>30.06214640898401</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="K22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="L22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="M22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="N22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="O22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="P22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="R22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="S22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>76.3579454451509</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>76.35794544515318</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="C25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="D25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="E25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="F25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="G25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="H25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="I25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="K25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="L25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="M25" t="n">
-        <v>92.33911863304834</v>
+        <v>5.508839130992385</v>
       </c>
       <c r="N25" t="n">
-        <v>5.508839130987923</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="O25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="P25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="R25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="S25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="T25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="U25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="V25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="W25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="X25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304816</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>77.66073332242794</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810488</v>
+        <v>77.66073332242726</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>76.32843350416138</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810488</v>
+        <v>76.32843350416024</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810487</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.66073332242718</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>76.32843350416141</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>76.32843350415996</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>76.32843350415956</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31993,43 +31993,43 @@
         <v>42.26405199212765</v>
       </c>
       <c r="I14" t="n">
-        <v>159.1001942562189</v>
+        <v>159.100194256219</v>
       </c>
       <c r="J14" t="n">
         <v>350.2608160885484</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9501675668116</v>
+        <v>524.9501675668117</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2471021357439</v>
+        <v>651.2471021357441</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6378830086842</v>
+        <v>724.6378830086844</v>
       </c>
       <c r="N14" t="n">
-        <v>736.3632815413471</v>
+        <v>736.3632815413472</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3269659551911</v>
+        <v>695.3269659551912</v>
       </c>
       <c r="P14" t="n">
-        <v>593.445478484848</v>
+        <v>593.4454784848481</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6528396987551</v>
+        <v>445.6528396987553</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2329311315015</v>
+        <v>259.2329311315016</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04048185237247</v>
+        <v>94.04048185237248</v>
       </c>
       <c r="T14" t="n">
         <v>18.06526425929831</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301476049671876</v>
+        <v>0.3301476049671877</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208056770720998</v>
+        <v>2.208056770720999</v>
       </c>
       <c r="H15" t="n">
-        <v>21.3251798645949</v>
+        <v>21.32517986459491</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02300723754314</v>
+        <v>76.02300723754317</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6129425355308</v>
+        <v>208.6129425355309</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5527461738377</v>
+        <v>356.5527461738378</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4291685725571</v>
+        <v>479.4291685725572</v>
       </c>
       <c r="M15" t="n">
-        <v>559.4712265111932</v>
+        <v>559.4712265111933</v>
       </c>
       <c r="N15" t="n">
-        <v>574.2787651183529</v>
+        <v>574.278765118353</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3528756197455</v>
+        <v>525.3528756197456</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6419986125036</v>
+        <v>421.6419986125037</v>
       </c>
       <c r="Q15" t="n">
         <v>281.8565098906313</v>
@@ -32105,10 +32105,10 @@
         <v>41.01368607019045</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900018299528933</v>
+        <v>8.900018299528934</v>
       </c>
       <c r="U15" t="n">
-        <v>0.145266892810592</v>
+        <v>0.1452668928105921</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.851160623138254</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45850081299285</v>
+        <v>16.45850081299286</v>
       </c>
       <c r="I16" t="n">
-        <v>55.66944855764859</v>
+        <v>55.66944855764861</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8770560558745</v>
+        <v>130.8770560558746</v>
       </c>
       <c r="K16" t="n">
         <v>215.0712069427898</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2170984618455</v>
+        <v>275.2170984618456</v>
       </c>
       <c r="M16" t="n">
         <v>290.1778420433901</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2780615389659</v>
+        <v>283.278061538966</v>
       </c>
       <c r="O16" t="n">
         <v>261.6531397141235</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8894630021029</v>
+        <v>223.889463002103</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.0094590884223</v>
+        <v>155.0094590884224</v>
       </c>
       <c r="R16" t="n">
-        <v>83.23491310947092</v>
+        <v>83.23491310947094</v>
       </c>
       <c r="S16" t="n">
         <v>32.26068104141847</v>
       </c>
       <c r="T16" t="n">
-        <v>7.909504480681628</v>
+        <v>7.90950448068163</v>
       </c>
       <c r="U16" t="n">
-        <v>0.100972397625723</v>
+        <v>0.1009723976257231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88185795365749</v>
+        <v>82.88185795365743</v>
       </c>
       <c r="K13" t="n">
-        <v>238.1656971313627</v>
+        <v>238.1656971313626</v>
       </c>
       <c r="L13" t="n">
         <v>348.1711057366174</v>
       </c>
       <c r="M13" t="n">
-        <v>375.1257010196864</v>
+        <v>375.1257010196863</v>
       </c>
       <c r="N13" t="n">
         <v>372.7742159326502</v>
@@ -35586,7 +35586,7 @@
         <v>266.5320042814521</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.2113978511837</v>
+        <v>114.2113978511836</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2149115618621</v>
+        <v>169.2149115618622</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8603165218311</v>
+        <v>304.8603165218312</v>
       </c>
       <c r="L14" t="n">
-        <v>415.4806871657567</v>
+        <v>415.4806871657568</v>
       </c>
       <c r="M14" t="n">
-        <v>494.2916497814115</v>
+        <v>494.2916497814117</v>
       </c>
       <c r="N14" t="n">
-        <v>506.9502179447562</v>
+        <v>506.9502179447563</v>
       </c>
       <c r="O14" t="n">
-        <v>465.2287545335043</v>
+        <v>465.2287545335045</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2124827295784</v>
+        <v>362.2124827295785</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3471498243057</v>
+        <v>223.3471498243058</v>
       </c>
       <c r="R14" t="n">
-        <v>43.64739331736939</v>
+        <v>43.64739331736945</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.77531586886414</v>
+        <v>81.77531586886417</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7113071994787</v>
+        <v>218.7113071994788</v>
       </c>
       <c r="L15" t="n">
-        <v>340.8747887926829</v>
+        <v>340.874788792683</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3371925891749</v>
+        <v>417.337192589175</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9370530350196</v>
+        <v>442.9370530350197</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7566311753011</v>
+        <v>382.7566311753012</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6675911981733</v>
+        <v>287.6675911981735</v>
       </c>
       <c r="Q15" t="n">
         <v>141.8747358046098</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88185795365746</v>
+        <v>82.88185795365743</v>
       </c>
       <c r="K16" t="n">
-        <v>238.1656971313627</v>
+        <v>238.1656971313626</v>
       </c>
       <c r="L16" t="n">
-        <v>348.1711057366174</v>
+        <v>348.1711057366173</v>
       </c>
       <c r="M16" t="n">
         <v>375.1257010196863</v>
@@ -35823,7 +35823,7 @@
         <v>266.5320042814521</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.2113978511837</v>
+        <v>114.2113978511836</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.22075324952679</v>
+        <v>96.22075324952661</v>
       </c>
       <c r="K19" t="n">
-        <v>178.3970674053028</v>
+        <v>178.3970674053026</v>
       </c>
       <c r="L19" t="n">
-        <v>271.2077263839991</v>
+        <v>232.6715408136554</v>
       </c>
       <c r="M19" t="n">
-        <v>243.5911767288334</v>
+        <v>243.5911767288332</v>
       </c>
       <c r="N19" t="n">
-        <v>247.9316357067811</v>
+        <v>247.9316357067809</v>
       </c>
       <c r="O19" t="n">
-        <v>215.5357198953291</v>
+        <v>215.5357198953289</v>
       </c>
       <c r="P19" t="n">
-        <v>178.5005775860037</v>
+        <v>217.0367631563518</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.84357609202488</v>
+        <v>95.84357609202469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>129.8569945722501</v>
+        <v>96.22075324952658</v>
       </c>
       <c r="K22" t="n">
-        <v>178.3970674053028</v>
+        <v>178.3970674053026</v>
       </c>
       <c r="L22" t="n">
-        <v>232.6715408136556</v>
+        <v>271.2077263840043</v>
       </c>
       <c r="M22" t="n">
-        <v>243.5911767288333</v>
+        <v>243.5911767288331</v>
       </c>
       <c r="N22" t="n">
-        <v>247.9316357067811</v>
+        <v>247.9316357067809</v>
       </c>
       <c r="O22" t="n">
-        <v>215.535719895329</v>
+        <v>215.5357198953288</v>
       </c>
       <c r="P22" t="n">
-        <v>178.5005775860036</v>
+        <v>178.5005775860034</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.7435203396454</v>
+        <v>95.84357609202466</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.1449464138635</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>413.5492320005537</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2812939233912</v>
+        <v>104.281293923391</v>
       </c>
       <c r="K25" t="n">
-        <v>191.6430118327154</v>
+        <v>191.6430118327152</v>
       </c>
       <c r="L25" t="n">
-        <v>249.621789261692</v>
+        <v>249.6217892616918</v>
       </c>
       <c r="M25" t="n">
-        <v>261.4628371170866</v>
+        <v>174.6325576150306</v>
       </c>
       <c r="N25" t="n">
-        <v>178.5480684540662</v>
+        <v>265.3783479561264</v>
       </c>
       <c r="O25" t="n">
-        <v>231.6505824898057</v>
+        <v>231.6505824898055</v>
       </c>
       <c r="P25" t="n">
-        <v>192.2896264641177</v>
+        <v>192.2896264641175</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.3903987931905</v>
+        <v>105.3903987931904</v>
       </c>
       <c r="R25" t="n">
-        <v>3.406965963001014</v>
+        <v>3.406965963000829</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666692</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="J26" t="n">
-        <v>406.8587527593789</v>
+        <v>237.7621375873051</v>
       </c>
       <c r="K26" t="n">
-        <v>384.1664231739932</v>
+        <v>384.166423173993</v>
       </c>
       <c r="L26" t="n">
-        <v>502.5652510109248</v>
+        <v>798.7395244573013</v>
       </c>
       <c r="M26" t="n">
-        <v>585.8962524488194</v>
+        <v>585.8962524488193</v>
       </c>
       <c r="N26" t="n">
-        <v>599.2769720315041</v>
+        <v>599.2769720315039</v>
       </c>
       <c r="O26" t="n">
-        <v>555.0281375068118</v>
+        <v>555.0281375068116</v>
       </c>
       <c r="P26" t="n">
-        <v>445.7371228379645</v>
+        <v>445.7371228379644</v>
       </c>
       <c r="Q26" t="n">
-        <v>359.130679823629</v>
+        <v>297.769441422312</v>
       </c>
       <c r="R26" t="n">
-        <v>172.3047550337999</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165684</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120774</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666607</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="J29" t="n">
-        <v>406.8587527593789</v>
+        <v>237.7621375873051</v>
       </c>
       <c r="K29" t="n">
-        <v>384.1664231739931</v>
+        <v>384.166423173993</v>
       </c>
       <c r="L29" t="n">
-        <v>502.5652510109247</v>
+        <v>798.7395244573013</v>
       </c>
       <c r="M29" t="n">
         <v>585.8962524488193</v>
       </c>
       <c r="N29" t="n">
-        <v>599.276972031504</v>
+        <v>599.2769720315039</v>
       </c>
       <c r="O29" t="n">
-        <v>555.0281375068117</v>
+        <v>555.0281375068116</v>
       </c>
       <c r="P29" t="n">
         <v>445.7371228379644</v>
       </c>
       <c r="Q29" t="n">
-        <v>359.1306798236317</v>
+        <v>297.769441422312</v>
       </c>
       <c r="R29" t="n">
-        <v>172.3047550337998</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120774</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.398206845666635</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="J32" t="n">
         <v>237.7621375873051</v>
@@ -37075,7 +37075,7 @@
         <v>502.5652510109247</v>
       </c>
       <c r="M32" t="n">
-        <v>882.0705258951954</v>
+        <v>882.0705258951958</v>
       </c>
       <c r="N32" t="n">
         <v>599.276972031504</v>
@@ -37090,7 +37090,7 @@
         <v>297.7694414223121</v>
       </c>
       <c r="R32" t="n">
-        <v>106.5883351608174</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165796</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>216.9721971791853</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>177.6112411534966</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266783</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J40" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>175.6323267038284</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37716,13 +37716,13 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>176.2789413352296</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266769</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>176.9646265220942</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>245.4521519881996</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057535</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>175.632326703827</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
